--- a/data/trans_orig/Q24D_2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q24D_2-Clase-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de veces que han intentado dejar de fumar</t>
+          <t>Número medio de veces que han intentado dejar de fumar</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 2,72</t>
+          <t>1,83; 2,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 3,57</t>
+          <t>2,32; 3,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 4,18</t>
+          <t>2,03; 4,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,25; 3,85</t>
+          <t>2,27; 4,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,7; 3,32</t>
+          <t>1,74; 3,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,65; 3,9</t>
+          <t>2,7; 3,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,7; 2,48</t>
+          <t>1,7; 2,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,08; 3,22</t>
+          <t>2,06; 3,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 2,67</t>
+          <t>1,89; 2,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,56; 3,49</t>
+          <t>2,55; 3,44</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 3,48</t>
+          <t>2,03; 3,41</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,29; 3,29</t>
+          <t>2,28; 3,31</t>
         </is>
       </c>
     </row>
@@ -864,22 +864,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,86</t>
+          <t>2,22; 4,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 3,21</t>
+          <t>2,34; 3,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,8</t>
+          <t>1,75; 2,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,26</t>
+          <t>2,21; 4,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,37 +889,37 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,86; 2,61</t>
+          <t>1,88; 2,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,65; 2,39</t>
+          <t>1,66; 2,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,98; 2,81</t>
+          <t>1,98; 2,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,1; 3,3</t>
+          <t>2,1; 3,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 2,83</t>
+          <t>2,18; 2,76</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,79; 2,49</t>
+          <t>1,78; 2,47</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,32</t>
+          <t>2,23; 3,34</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,2</t>
+          <t>2,3; 4,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,18</t>
+          <t>2,29; 3,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,04</t>
+          <t>2,27; 3,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,34</t>
+          <t>2,09; 4,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,1</t>
+          <t>1,35; 2,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 2,68</t>
+          <t>1,88; 2,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 4,14</t>
+          <t>1,92; 4,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 4,81</t>
+          <t>2,29; 4,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,17; 3,82</t>
+          <t>2,22; 3,83</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 2,97</t>
+          <t>2,26; 3,06</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 3,04</t>
+          <t>2,3; 3,12</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,84</t>
+          <t>2,27; 4,06</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,42; 3,65</t>
+          <t>2,43; 3,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,41; 3,61</t>
+          <t>2,42; 3,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,43; 3,06</t>
+          <t>2,45; 3,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 5,33</t>
+          <t>2,29; 4,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 2,35</t>
+          <t>1,78; 2,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 3,07</t>
+          <t>2,16; 2,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,3; 2,98</t>
+          <t>2,32; 2,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,65; 3,68</t>
+          <t>2,6; 3,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,28; 3,07</t>
+          <t>2,26; 3,08</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,4; 3,18</t>
+          <t>2,4; 3,22</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,46; 2,93</t>
+          <t>2,47; 2,93</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 4,17</t>
+          <t>2,57; 4,05</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,16; 5,49</t>
+          <t>2,13; 5,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,11; 2,95</t>
+          <t>2,06; 2,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,1; 2,92</t>
+          <t>2,09; 2,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,66; 4,76</t>
+          <t>2,62; 4,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,87; 2,61</t>
+          <t>1,86; 2,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,23; 2,9</t>
+          <t>2,21; 2,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,2; 2,95</t>
+          <t>2,18; 2,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,16; 3,75</t>
+          <t>2,18; 3,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,13; 3,92</t>
+          <t>2,12; 3,82</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,26; 2,79</t>
+          <t>2,26; 2,78</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,24; 2,79</t>
+          <t>2,22; 2,77</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,49; 3,72</t>
+          <t>2,49; 3,78</t>
         </is>
       </c>
     </row>
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,98</t>
+          <t>1,16; 2,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,17</t>
+          <t>1,91; 4,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,66; 3,0</t>
+          <t>1,65; 3,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,42 +1444,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,23; 3,24</t>
+          <t>2,22; 3,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,79; 2,74</t>
+          <t>1,8; 2,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,76</t>
+          <t>2,1; 4,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,2</t>
+          <t>2,18; 4,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,19; 3,18</t>
+          <t>2,18; 3,11</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,9; 2,9</t>
+          <t>1,89; 2,87</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,32</t>
+          <t>2,08; 4,14</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,14</t>
+          <t>2,22; 4,05</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,48; 3,25</t>
+          <t>2,47; 3,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,03</t>
+          <t>2,5; 3,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,37; 2,77</t>
+          <t>2,38; 2,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,6; 3,76</t>
+          <t>2,56; 3,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,03; 2,4</t>
+          <t>2,02; 2,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,29; 2,65</t>
+          <t>2,28; 2,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,32; 2,8</t>
+          <t>2,31; 2,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,55; 3,11</t>
+          <t>2,55; 3,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,35; 2,83</t>
+          <t>2,36; 2,86</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,44; 2,76</t>
+          <t>2,45; 2,78</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,4; 2,72</t>
+          <t>2,39; 2,7</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,65; 3,3</t>
+          <t>2,64; 3,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q24D_2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q24D_2-Clase-trans_orig.xlsx
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
